--- a/Data/Heapsort.xlsx
+++ b/Data/Heapsort.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AngusRitossa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AngusRitossa/Desktop/Heaps/Heaps/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>2-ary</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Times are in milliseconds</t>
   </si>
 </sst>
 </file>
@@ -160,10 +163,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mj-ea"/>
@@ -171,7 +171,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Heapsort</a:t>
             </a:r>
           </a:p>
@@ -193,10 +197,7 @@
           <a:pPr>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mj-ea"/>
@@ -1681,11 +1682,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2085127072"/>
-        <c:axId val="-2109186496"/>
+        <c:axId val="2110834864"/>
+        <c:axId val="2110826656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2085127072"/>
+        <c:axId val="2110834864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,12 +1800,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109186496"/>
+        <c:crossAx val="2110826656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2109186496"/>
+        <c:axId val="2110826656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,7 +1918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085127072"/>
+        <c:crossAx val="2110834864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2924,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2945,6 +2946,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" s="1">
         <v>100000</v>
       </c>

--- a/Data/Heapsort.xlsx
+++ b/Data/Heapsort.xlsx
@@ -74,9 +74,6 @@
     <t>Pop</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Smooth forest</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Times are in milliseconds</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -1682,11 +1682,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110834864"/>
-        <c:axId val="2110826656"/>
+        <c:axId val="-2120643248"/>
+        <c:axId val="2115570512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110834864"/>
+        <c:axId val="-2120643248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,12 +1800,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110826656"/>
+        <c:crossAx val="2115570512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110826656"/>
+        <c:axId val="2115570512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,7 +1918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110834864"/>
+        <c:crossAx val="-2120643248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2925,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2947,7 +2947,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1">
         <v>100000</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>28</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>28</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1">
         <v>100000</v>
@@ -4836,7 +4836,7 @@
         <v>11171</v>
       </c>
       <c r="AA44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">

--- a/Data/Heapsort.xlsx
+++ b/Data/Heapsort.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,24 +160,93 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:rPr>
+              <a:t>Figure 4:</a:t>
+            </a:r>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" b="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
               </a:rPr>
-              <a:t>Heapsort</a:t>
+              <a:t> Time </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:rPr>
+              <a:t>taken to sort </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:rPr>
+              <a:t>n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:rPr>
+              <a:t> numbers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="CMU Serif Roman" charset="0"/>
+              <a:ea typeface="CMU Serif Roman" charset="0"/>
+              <a:cs typeface="CMU Serif Roman" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -194,14 +263,28 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
+              <a:latin typeface="CMU Serif Roman" charset="0"/>
+              <a:ea typeface="CMU Serif Roman" charset="0"/>
+              <a:cs typeface="CMU Serif Roman" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1682,13 +1765,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2120643248"/>
-        <c:axId val="2115570512"/>
+        <c:axId val="2121138512"/>
+        <c:axId val="2119994848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2120643248"/>
+        <c:axId val="2121138512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8.0E6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1715,18 +1799,22 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:rPr>
                   <a:t>Number of elements</a:t>
                 </a:r>
               </a:p>
@@ -1748,14 +1836,11 @@
               <a:pPr>
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="CMU Serif Roman" charset="0"/>
+                  <a:ea typeface="CMU Serif Roman" charset="0"/>
+                  <a:cs typeface="CMU Serif Roman" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1763,6 +1848,1566 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2119994848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2119994848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time Taken (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif Roman" charset="0"/>
+                  <a:ea typeface="CMU Serif Roman" charset="0"/>
+                  <a:cs typeface="CMU Serif Roman" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121138512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="CMU Serif Roman" charset="0"/>
+              <a:ea typeface="CMU Serif Roman" charset="0"/>
+              <a:cs typeface="CMU Serif Roman" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1306.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2510.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3571.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>764.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1325.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1965.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$H$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>695.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1195.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1713.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$40:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>741.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1245.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1728.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binomial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>793.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1858.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4362.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7041.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10042.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$42:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>904.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2129.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5026.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8213.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11847.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hollow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>380.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>890.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2063.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4972.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8243.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11793.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$44:$H$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>306.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>774.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1880.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4680.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7704.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11171.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank-pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$46:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1355.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3284.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7985.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13203.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18943.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>276.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>675.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1679.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6886.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9958.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth one-tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$48:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>680.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1676.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4088.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6876.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9953.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Violation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>501.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1203.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2875.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6774.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11137.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16314.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2122016048"/>
+        <c:axId val="2122019072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2122016048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8.0E6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1800,12 +3445,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115570512"/>
+        <c:crossAx val="2122019072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115570512"/>
+        <c:axId val="2122019072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,62 +3470,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time Taken (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1918,22 +3507,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120643248"/>
+        <c:crossAx val="2122016048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:pattFill prst="ltDnDiag">
-          <a:fgClr>
-            <a:schemeClr val="dk1">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-            </a:schemeClr>
-          </a:fgClr>
-          <a:bgClr>
-            <a:schemeClr val="lt1"/>
-          </a:bgClr>
-        </a:pattFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2010,6 +3589,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2625,6 +4244,582 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2652,6 +4847,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>272955</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>21609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236940</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>75822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2925,8 +5150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="I36" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
+      <selection activeCell="AB51" sqref="AB51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/Heapsort.xlsx
+++ b/Data/Heapsort.xlsx
@@ -1765,11 +1765,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121138512"/>
-        <c:axId val="2119994848"/>
+        <c:axId val="2137736896"/>
+        <c:axId val="2137742896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121138512"/>
+        <c:axId val="2137736896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0E6"/>
@@ -1882,12 +1882,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119994848"/>
+        <c:crossAx val="2137742896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2119994848"/>
+        <c:axId val="2137742896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +1998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121138512"/>
+        <c:crossAx val="2137736896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3383,11 +3383,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122016048"/>
-        <c:axId val="2122019072"/>
+        <c:axId val="2138586224"/>
+        <c:axId val="2138589248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2122016048"/>
+        <c:axId val="2138586224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0E6"/>
@@ -3445,12 +3445,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122019072"/>
+        <c:crossAx val="2138589248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122019072"/>
+        <c:axId val="2138589248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3507,7 +3507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122016048"/>
+        <c:crossAx val="2138586224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5150,8 +5150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I36" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
-      <selection activeCell="AB51" sqref="AB51"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
